--- a/Code/Results/Cases/Case_5_67/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_67/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>18.19186343208024</v>
+        <v>19.01164980593784</v>
       </c>
       <c r="C2">
-        <v>6.7610796413253</v>
+        <v>5.266203629647237</v>
       </c>
       <c r="D2">
-        <v>5.812384084228732</v>
+        <v>8.475935357025193</v>
       </c>
       <c r="E2">
-        <v>6.945087755481049</v>
+        <v>10.66851330593078</v>
       </c>
       <c r="F2">
-        <v>35.8097152757083</v>
+        <v>42.06301780364799</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,16 +448,16 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>13.95176262369681</v>
+        <v>15.21615303703812</v>
       </c>
       <c r="L2">
-        <v>7.112772835804562</v>
+        <v>10.25156721744367</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>16.7452673880392</v>
+        <v>23.72442181002088</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>17.17650895756708</v>
+        <v>18.82691776739079</v>
       </c>
       <c r="C3">
-        <v>6.396815608811914</v>
+        <v>5.115554408922794</v>
       </c>
       <c r="D3">
-        <v>5.882362395122111</v>
+        <v>8.487262257346668</v>
       </c>
       <c r="E3">
-        <v>6.840065383852568</v>
+        <v>10.67603973725415</v>
       </c>
       <c r="F3">
-        <v>34.72683960473472</v>
+        <v>41.90554509757459</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,16 +495,16 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>13.19443803688851</v>
+        <v>15.09156237742939</v>
       </c>
       <c r="L3">
-        <v>6.913845750486292</v>
+        <v>10.24509325233009</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>16.82640080194626</v>
+        <v>23.75357729588041</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>16.53616816019377</v>
+        <v>18.7179461065581</v>
       </c>
       <c r="C4">
-        <v>6.164048119072969</v>
+        <v>5.019570367264432</v>
       </c>
       <c r="D4">
-        <v>5.925495115824683</v>
+        <v>8.49442753970146</v>
       </c>
       <c r="E4">
-        <v>6.778848141893406</v>
+        <v>10.68232289721508</v>
       </c>
       <c r="F4">
-        <v>34.07283870085129</v>
+        <v>41.81724240539624</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,16 +542,16 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>12.71792404048727</v>
+        <v>15.01872627120869</v>
       </c>
       <c r="L4">
-        <v>6.793780218459836</v>
+        <v>10.24307119016048</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>16.88153519166588</v>
+        <v>23.77330635176207</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>16.27123531297614</v>
+        <v>18.67470715159067</v>
       </c>
       <c r="C5">
-        <v>6.066915314772301</v>
+        <v>4.979606918859592</v>
       </c>
       <c r="D5">
-        <v>5.943132338435466</v>
+        <v>8.497400636014982</v>
       </c>
       <c r="E5">
-        <v>6.754721811373461</v>
+        <v>10.68530135535586</v>
       </c>
       <c r="F5">
-        <v>33.80926021068296</v>
+        <v>41.78338688379616</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,16 +589,16 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>12.52105252137292</v>
+        <v>14.98999542398287</v>
       </c>
       <c r="L5">
-        <v>6.745418527322503</v>
+        <v>10.24273923136116</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>16.90529091140463</v>
+        <v>23.78180538484989</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>16.22701142670256</v>
+        <v>18.66759923966785</v>
       </c>
       <c r="C6">
-        <v>6.050649466537494</v>
+        <v>4.972920571241506</v>
       </c>
       <c r="D6">
-        <v>5.946065147230175</v>
+        <v>8.497897535942506</v>
       </c>
       <c r="E6">
-        <v>6.75076513197684</v>
+        <v>10.68582117493794</v>
       </c>
       <c r="F6">
-        <v>33.76567620775969</v>
+        <v>41.77789428633522</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,16 +636,16 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>12.48820675851963</v>
+        <v>14.98528291467458</v>
       </c>
       <c r="L6">
-        <v>6.737423607961908</v>
+        <v>10.2427138509357</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>16.90931195566478</v>
+        <v>23.78324437496583</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>16.53261093977038</v>
+        <v>18.71735818097925</v>
       </c>
       <c r="C7">
-        <v>6.162747352081769</v>
+        <v>5.019034806837348</v>
       </c>
       <c r="D7">
-        <v>5.925732709785445</v>
+        <v>8.494467420262662</v>
       </c>
       <c r="E7">
-        <v>6.778519447271602</v>
+        <v>10.68236137311064</v>
       </c>
       <c r="F7">
-        <v>34.06927185105883</v>
+        <v>41.81677717554207</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,16 +683,16 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>12.7152795390118</v>
+        <v>15.01833491124054</v>
       </c>
       <c r="L7">
-        <v>6.793125644709527</v>
+        <v>10.24306471990621</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>16.88185041679545</v>
+        <v>23.77341911347399</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.84541741361123</v>
+        <v>18.94705903817247</v>
       </c>
       <c r="C8">
-        <v>6.637375484854424</v>
+        <v>5.214998555492127</v>
       </c>
       <c r="D8">
-        <v>5.836489820984188</v>
+        <v>8.479797330255094</v>
       </c>
       <c r="E8">
-        <v>6.908197432633069</v>
+        <v>10.67076359213363</v>
       </c>
       <c r="F8">
-        <v>35.43419122435471</v>
+        <v>42.00699327286463</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,16 +730,16 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>13.69313668551982</v>
+        <v>15.17245207988038</v>
       </c>
       <c r="L8">
-        <v>7.043777317289067</v>
+        <v>10.24893030439076</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>16.77210751695871</v>
+        <v>23.7340951807831</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.27721308520958</v>
+        <v>19.4306372112221</v>
       </c>
       <c r="C9">
-        <v>7.495916128186575</v>
+        <v>5.570566680476789</v>
       </c>
       <c r="D9">
-        <v>5.661885743864704</v>
+        <v>8.452687818551992</v>
       </c>
       <c r="E9">
-        <v>7.18846567589774</v>
+        <v>10.66119867400916</v>
       </c>
       <c r="F9">
-        <v>38.18975707632675</v>
+        <v>42.44556865764091</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,16 +777,16 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>15.59587497984376</v>
+        <v>15.50236473804663</v>
       </c>
       <c r="L9">
-        <v>7.550030186189121</v>
+        <v>10.2758764525803</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>16.60153299816801</v>
+        <v>23.67149296911021</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>21.96961205356632</v>
+        <v>19.80303359183134</v>
       </c>
       <c r="C10">
-        <v>8.083565661056324</v>
+        <v>5.81303747109269</v>
       </c>
       <c r="D10">
-        <v>5.532452236099425</v>
+        <v>8.433764101216113</v>
       </c>
       <c r="E10">
-        <v>7.410325682656345</v>
+        <v>10.66218998278867</v>
       </c>
       <c r="F10">
-        <v>40.25470584338293</v>
+        <v>42.80629427369976</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,16 +824,16 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>17.11697148826476</v>
+        <v>15.7596832402028</v>
       </c>
       <c r="L10">
-        <v>7.928980001060931</v>
+        <v>10.30500359385088</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>16.50715912383629</v>
+        <v>23.63436293133038</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>22.71854878919892</v>
+        <v>19.97547845760167</v>
       </c>
       <c r="C11">
-        <v>8.341945114062829</v>
+        <v>5.919047021755785</v>
       </c>
       <c r="D11">
-        <v>5.472972397424418</v>
+        <v>8.425367191686352</v>
       </c>
       <c r="E11">
-        <v>7.514768094437849</v>
+        <v>10.66437671337544</v>
       </c>
       <c r="F11">
-        <v>41.20203506656178</v>
+        <v>42.97839853697947</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,16 +871,16 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>17.78000023922477</v>
+        <v>15.8795468328966</v>
       </c>
       <c r="L11">
-        <v>8.102609376610337</v>
+        <v>10.3202562980099</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>16.47188853841023</v>
+        <v>23.61939988494012</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>23.00001574154037</v>
+        <v>20.04115772976651</v>
       </c>
       <c r="C12">
-        <v>8.438546720416724</v>
+        <v>5.958556980262408</v>
       </c>
       <c r="D12">
-        <v>5.450330465400179</v>
+        <v>8.422217649610159</v>
       </c>
       <c r="E12">
-        <v>7.554830059230692</v>
+        <v>10.66545368373633</v>
       </c>
       <c r="F12">
-        <v>41.56189925495939</v>
+        <v>43.0446876430928</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,16 +918,16 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>18.02706202001575</v>
+        <v>15.92530176459486</v>
       </c>
       <c r="L12">
-        <v>8.168523409066921</v>
+        <v>10.32631755224988</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>16.45972322852515</v>
+        <v>23.6140112532013</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>22.93885425788115</v>
+        <v>20.02699664530562</v>
       </c>
       <c r="C13">
-        <v>8.417796200666015</v>
+        <v>5.950076223150838</v>
       </c>
       <c r="D13">
-        <v>5.455212612256592</v>
+        <v>8.422894621163737</v>
       </c>
       <c r="E13">
-        <v>7.546179099012805</v>
+        <v>10.66521068130585</v>
       </c>
       <c r="F13">
-        <v>41.48434542158459</v>
+        <v>43.03036199338282</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,16 +965,16 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>17.97402882872473</v>
+        <v>15.91543199915291</v>
       </c>
       <c r="L13">
-        <v>8.1543204642531</v>
+        <v>10.32499950427864</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>16.4622887535028</v>
+        <v>23.61515944164048</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>22.74169433818154</v>
+        <v>19.9808746904666</v>
       </c>
       <c r="C14">
-        <v>8.349917162925808</v>
+        <v>5.922310314703044</v>
       </c>
       <c r="D14">
-        <v>5.47111219592806</v>
+        <v>8.425107473381122</v>
       </c>
       <c r="E14">
-        <v>7.518053710613152</v>
+        <v>10.66446033242712</v>
       </c>
       <c r="F14">
-        <v>41.23161853580995</v>
+        <v>42.98383000154216</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,16 +1012,16 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>17.80040569298339</v>
+        <v>15.88330402254088</v>
       </c>
       <c r="L14">
-        <v>8.108028919678343</v>
+        <v>10.32074925730532</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>16.47086327740618</v>
+        <v>23.6189509944061</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>22.6205386065142</v>
+        <v>19.95267115444551</v>
       </c>
       <c r="C15">
-        <v>8.308179188572277</v>
+        <v>5.905219930628989</v>
       </c>
       <c r="D15">
-        <v>5.480834751331163</v>
+        <v>8.426466833153224</v>
       </c>
       <c r="E15">
-        <v>7.500892998340776</v>
+        <v>10.66403311375273</v>
       </c>
       <c r="F15">
-        <v>41.07696379236707</v>
+        <v>42.95547221205208</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,16 +1059,16 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>17.69353851490819</v>
+        <v>15.86367111359954</v>
       </c>
       <c r="L15">
-        <v>8.079695144252341</v>
+        <v>10.318182942393</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>16.47627332703144</v>
+        <v>23.62130958573551</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>21.92024587705447</v>
+        <v>19.79182004576072</v>
       </c>
       <c r="C16">
-        <v>8.066503582880607</v>
+        <v>5.80602169174831</v>
       </c>
       <c r="D16">
-        <v>5.536324655354873</v>
+        <v>8.434317096071453</v>
       </c>
       <c r="E16">
-        <v>7.403571352553931</v>
+        <v>10.66208194603288</v>
       </c>
       <c r="F16">
-        <v>40.19295357546431</v>
+        <v>42.79520508890733</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,16 +1106,16 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>17.07307116325833</v>
+        <v>15.75190309001426</v>
       </c>
       <c r="L16">
-        <v>7.917656491924245</v>
+        <v>10.30404687682316</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>16.50962570747517</v>
+        <v>23.63537962091703</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>21.48526964641606</v>
+        <v>19.69387978337037</v>
       </c>
       <c r="C17">
-        <v>7.915981222665359</v>
+        <v>5.744055304188598</v>
       </c>
       <c r="D17">
-        <v>5.57019054890331</v>
+        <v>8.439186998829646</v>
       </c>
       <c r="E17">
-        <v>7.344771913529445</v>
+        <v>10.66132908270618</v>
       </c>
       <c r="F17">
-        <v>39.65265667834739</v>
+        <v>42.69891353088764</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,16 +1153,16 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>16.68512602612945</v>
+        <v>15.68402895337468</v>
       </c>
       <c r="L17">
-        <v>7.818556371743987</v>
+        <v>10.2958860261675</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>16.53210894845158</v>
+        <v>23.64450509514237</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.23310800646644</v>
+        <v>19.63783681698181</v>
       </c>
       <c r="C18">
-        <v>7.828559425719583</v>
+        <v>5.708010785781524</v>
       </c>
       <c r="D18">
-        <v>5.589614947269296</v>
+        <v>8.442007967760306</v>
       </c>
       <c r="E18">
-        <v>7.311282558142946</v>
+        <v>10.6610594849348</v>
       </c>
       <c r="F18">
-        <v>39.3426405414609</v>
+        <v>42.64428516450987</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,16 +1200,16 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>16.45925805628334</v>
+        <v>15.64525621060856</v>
       </c>
       <c r="L18">
-        <v>7.761673954585532</v>
+        <v>10.29138078995766</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>16.54575587282891</v>
+        <v>23.64993523949881</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.14739156426083</v>
+        <v>19.61891317897813</v>
       </c>
       <c r="C19">
-        <v>7.798813515191294</v>
+        <v>5.695738031514388</v>
       </c>
       <c r="D19">
-        <v>5.596183298036327</v>
+        <v>8.442966529627506</v>
       </c>
       <c r="E19">
-        <v>7.300000269386044</v>
+        <v>10.66099629224534</v>
       </c>
       <c r="F19">
-        <v>39.23780426210936</v>
+        <v>42.62591980289406</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,16 +1247,16 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>16.3823095415319</v>
+        <v>15.63217539394229</v>
       </c>
       <c r="L19">
-        <v>7.74243528587392</v>
+        <v>10.28988787272695</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>16.55049674879905</v>
+        <v>23.65180493971757</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>21.5317780429687</v>
+        <v>19.70427613742752</v>
       </c>
       <c r="C20">
-        <v>7.932091777409019</v>
+        <v>5.750693575230981</v>
       </c>
       <c r="D20">
-        <v>5.566591314652243</v>
+        <v>8.438666528497357</v>
       </c>
       <c r="E20">
-        <v>7.350996971572414</v>
+        <v>10.66139231668066</v>
       </c>
       <c r="F20">
-        <v>39.71009503478006</v>
+        <v>42.70908593429404</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,16 +1294,16 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>16.72670520090392</v>
+        <v>15.69122695040253</v>
       </c>
       <c r="L20">
-        <v>7.829093736479284</v>
+        <v>10.29673525397442</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>16.52964093624857</v>
+        <v>23.6435148947505</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>22.79968609515929</v>
+        <v>19.99441203442764</v>
       </c>
       <c r="C21">
-        <v>8.369888151575459</v>
+        <v>5.930483151286945</v>
       </c>
       <c r="D21">
-        <v>5.466445582014652</v>
+        <v>8.424456687734788</v>
       </c>
       <c r="E21">
-        <v>7.526300861341396</v>
+        <v>10.6646739791038</v>
       </c>
       <c r="F21">
-        <v>41.30581970370527</v>
+        <v>42.99746754738029</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,16 +1341,16 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>17.85151068418247</v>
+        <v>15.89273118694932</v>
       </c>
       <c r="L21">
-        <v>8.12162147717526</v>
+        <v>10.32198993459263</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>16.46831165109189</v>
+        <v>23.61782978797187</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>23.67273274308649</v>
+        <v>20.18620938580685</v>
       </c>
       <c r="C22">
-        <v>8.648808007343721</v>
+        <v>6.044286846275609</v>
       </c>
       <c r="D22">
-        <v>5.400288257888493</v>
+        <v>8.415345567364316</v>
       </c>
       <c r="E22">
-        <v>7.643861147486077</v>
+        <v>10.66826912210876</v>
       </c>
       <c r="F22">
-        <v>42.35534388301977</v>
+        <v>43.19243466392796</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,16 +1388,16 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>18.56332489614782</v>
+        <v>16.02653627494011</v>
       </c>
       <c r="L22">
-        <v>8.313763314025355</v>
+        <v>10.34015737936412</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>16.43521954147612</v>
+        <v>23.60266101968242</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>23.19865966696821</v>
+        <v>20.0836638472228</v>
       </c>
       <c r="C23">
-        <v>8.500584811333042</v>
+        <v>5.98389109788751</v>
       </c>
       <c r="D23">
-        <v>5.435673734901766</v>
+        <v>8.420192334434407</v>
       </c>
       <c r="E23">
-        <v>7.580840591937117</v>
+        <v>10.66621787855136</v>
       </c>
       <c r="F23">
-        <v>41.7945775980964</v>
+        <v>43.0877948714553</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,16 +1435,16 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>18.1854969927127</v>
+        <v>15.95494174347685</v>
       </c>
       <c r="L23">
-        <v>8.211128268887492</v>
+        <v>10.33030992193643</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>16.45220971684692</v>
+        <v>23.61060871718649</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>21.51075810096422</v>
+        <v>19.6995751183359</v>
       </c>
       <c r="C24">
-        <v>7.924810953875438</v>
+        <v>5.747693717433744</v>
       </c>
       <c r="D24">
-        <v>5.568218667979625</v>
+        <v>8.438901767075027</v>
       </c>
       <c r="E24">
-        <v>7.348181641387683</v>
+        <v>10.66136322010884</v>
       </c>
       <c r="F24">
-        <v>39.68412525894607</v>
+        <v>42.70448471127543</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,16 +1482,16 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>16.70791609150487</v>
+        <v>15.68797195740217</v>
       </c>
       <c r="L24">
-        <v>7.824329507470027</v>
+        <v>10.29635073683333</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>16.53075448541872</v>
+        <v>23.64396199185632</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.63556609498858</v>
+        <v>19.29658223897301</v>
       </c>
       <c r="C25">
-        <v>7.271333914877781</v>
+        <v>5.477589029895853</v>
       </c>
       <c r="D25">
-        <v>5.709214329749776</v>
+        <v>8.45984590930092</v>
       </c>
       <c r="E25">
-        <v>7.109855822505441</v>
+        <v>10.66237652940642</v>
       </c>
       <c r="F25">
-        <v>37.43676970973036</v>
+        <v>42.32004519311515</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,16 +1529,16 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>15.03165826150516</v>
+        <v>15.41034627501635</v>
       </c>
       <c r="L25">
-        <v>7.411723462730402</v>
+        <v>10.26694110400127</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>16.64253693937272</v>
+        <v>23.68687315864325</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_67/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_67/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>19.01164980593784</v>
+        <v>18.19186343208024</v>
       </c>
       <c r="C2">
-        <v>5.266203629647237</v>
+        <v>6.761079641325189</v>
       </c>
       <c r="D2">
-        <v>8.475935357025193</v>
+        <v>5.812384084228799</v>
       </c>
       <c r="E2">
-        <v>10.66851330593078</v>
+        <v>6.945087755481063</v>
       </c>
       <c r="F2">
-        <v>42.06301780364799</v>
+        <v>35.80971527570834</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,16 +448,16 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>15.21615303703812</v>
+        <v>13.95176262369682</v>
       </c>
       <c r="L2">
-        <v>10.25156721744367</v>
+        <v>7.112772835804601</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>23.72442181002088</v>
+        <v>16.74526738803924</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>18.82691776739079</v>
+        <v>17.17650895756712</v>
       </c>
       <c r="C3">
-        <v>5.115554408922794</v>
+        <v>6.396815608811818</v>
       </c>
       <c r="D3">
-        <v>8.487262257346668</v>
+        <v>5.882362395122239</v>
       </c>
       <c r="E3">
-        <v>10.67603973725415</v>
+        <v>6.840065383852438</v>
       </c>
       <c r="F3">
-        <v>41.90554509757459</v>
+        <v>34.72683960473499</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,16 +495,16 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>15.09156237742939</v>
+        <v>13.19443803688854</v>
       </c>
       <c r="L3">
-        <v>10.24509325233009</v>
+        <v>6.913845750486207</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>23.75357729588041</v>
+        <v>16.8264008019464</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.7179461065581</v>
+        <v>16.53616816019371</v>
       </c>
       <c r="C4">
-        <v>5.019570367264432</v>
+        <v>6.164048119073017</v>
       </c>
       <c r="D4">
-        <v>8.49442753970146</v>
+        <v>5.925495115824553</v>
       </c>
       <c r="E4">
-        <v>10.68232289721508</v>
+        <v>6.778848141893413</v>
       </c>
       <c r="F4">
-        <v>41.81724240539624</v>
+        <v>34.07283870085109</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,16 +542,16 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>15.01872627120869</v>
+        <v>12.71792404048723</v>
       </c>
       <c r="L4">
-        <v>10.24307119016048</v>
+        <v>6.793780218459809</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>23.77330635176207</v>
+        <v>16.88153519166579</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.67470715159067</v>
+        <v>16.27123531297618</v>
       </c>
       <c r="C5">
-        <v>4.979606918859592</v>
+        <v>6.066915314772305</v>
       </c>
       <c r="D5">
-        <v>8.497400636014982</v>
+        <v>5.943132338435595</v>
       </c>
       <c r="E5">
-        <v>10.68530135535586</v>
+        <v>6.754721811373456</v>
       </c>
       <c r="F5">
-        <v>41.78338688379616</v>
+        <v>33.80926021068304</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,16 +589,16 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>14.98999542398287</v>
+        <v>12.52105252137297</v>
       </c>
       <c r="L5">
-        <v>10.24273923136116</v>
+        <v>6.745418527322516</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>23.78180538484989</v>
+        <v>16.90529091140463</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.66759923966785</v>
+        <v>16.22701142670257</v>
       </c>
       <c r="C6">
-        <v>4.972920571241506</v>
+        <v>6.050649466537597</v>
       </c>
       <c r="D6">
-        <v>8.497897535942506</v>
+        <v>5.946065147230371</v>
       </c>
       <c r="E6">
-        <v>10.68582117493794</v>
+        <v>6.750765131976884</v>
       </c>
       <c r="F6">
-        <v>41.77789428633522</v>
+        <v>33.76567620775968</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,16 +636,16 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>14.98528291467458</v>
+        <v>12.48820675851963</v>
       </c>
       <c r="L6">
-        <v>10.2427138509357</v>
+        <v>6.737423607961898</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>23.78324437496583</v>
+        <v>16.90931195566482</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.71735818097925</v>
+        <v>16.53261093977034</v>
       </c>
       <c r="C7">
-        <v>5.019034806837348</v>
+        <v>6.162747352081969</v>
       </c>
       <c r="D7">
-        <v>8.494467420262662</v>
+        <v>5.925732709785239</v>
       </c>
       <c r="E7">
-        <v>10.68236137311064</v>
+        <v>6.778519447271653</v>
       </c>
       <c r="F7">
-        <v>41.81677717554207</v>
+        <v>34.06927185105864</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,16 +683,16 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>15.01833491124054</v>
+        <v>12.71527953901176</v>
       </c>
       <c r="L7">
-        <v>10.24306471990621</v>
+        <v>6.793125644709483</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>23.77341911347399</v>
+        <v>16.88185041679536</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>18.94705903817247</v>
+        <v>17.84541741361123</v>
       </c>
       <c r="C8">
-        <v>5.214998555492127</v>
+        <v>6.637375484854227</v>
       </c>
       <c r="D8">
-        <v>8.479797330255094</v>
+        <v>5.83648982098419</v>
       </c>
       <c r="E8">
-        <v>10.67076359213363</v>
+        <v>6.908197432633148</v>
       </c>
       <c r="F8">
-        <v>42.00699327286463</v>
+        <v>35.4341912243549</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,16 +730,16 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>15.17245207988038</v>
+        <v>13.69313668551983</v>
       </c>
       <c r="L8">
-        <v>10.24893030439076</v>
+        <v>7.043777317289147</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>23.7340951807831</v>
+        <v>16.77210751695888</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>19.4306372112221</v>
+        <v>20.27721308520958</v>
       </c>
       <c r="C9">
-        <v>5.570566680476789</v>
+        <v>7.495916128186694</v>
       </c>
       <c r="D9">
-        <v>8.452687818551992</v>
+        <v>5.661885743864632</v>
       </c>
       <c r="E9">
-        <v>10.66119867400916</v>
+        <v>7.188465675897793</v>
       </c>
       <c r="F9">
-        <v>42.44556865764091</v>
+        <v>38.18975707632664</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,16 +777,16 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>15.50236473804663</v>
+        <v>15.59587497984383</v>
       </c>
       <c r="L9">
-        <v>10.2758764525803</v>
+        <v>7.550030186189121</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>23.67149296911021</v>
+        <v>16.60153299816797</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>19.80303359183134</v>
+        <v>21.96961205356635</v>
       </c>
       <c r="C10">
-        <v>5.81303747109269</v>
+        <v>8.08356566105622</v>
       </c>
       <c r="D10">
-        <v>8.433764101216113</v>
+        <v>5.532452236099365</v>
       </c>
       <c r="E10">
-        <v>10.66218998278867</v>
+        <v>7.410325682656294</v>
       </c>
       <c r="F10">
-        <v>42.80629427369976</v>
+        <v>40.2547058433829</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,16 +824,16 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>15.7596832402028</v>
+        <v>17.11697148826482</v>
       </c>
       <c r="L10">
-        <v>10.30500359385088</v>
+        <v>7.928980001060893</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>23.63436293133038</v>
+        <v>16.50715912383618</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>19.97547845760167</v>
+        <v>22.71854878919893</v>
       </c>
       <c r="C11">
-        <v>5.919047021755785</v>
+        <v>8.3419451140627</v>
       </c>
       <c r="D11">
-        <v>8.425367191686352</v>
+        <v>5.472972397424488</v>
       </c>
       <c r="E11">
-        <v>10.66437671337544</v>
+        <v>7.514768094437854</v>
       </c>
       <c r="F11">
-        <v>42.97839853697947</v>
+        <v>41.2020350665619</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,16 +871,16 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>15.8795468328966</v>
+        <v>17.78000023922475</v>
       </c>
       <c r="L11">
-        <v>10.3202562980099</v>
+        <v>8.102609376610326</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>23.61939988494012</v>
+        <v>16.4718885384103</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>20.04115772976651</v>
+        <v>23.00001574154037</v>
       </c>
       <c r="C12">
-        <v>5.958556980262408</v>
+        <v>8.438546720416564</v>
       </c>
       <c r="D12">
-        <v>8.422217649610159</v>
+        <v>5.450330465400109</v>
       </c>
       <c r="E12">
-        <v>10.66545368373633</v>
+        <v>7.554830059230663</v>
       </c>
       <c r="F12">
-        <v>43.0446876430928</v>
+        <v>41.5618992549593</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,16 +918,16 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>15.92530176459486</v>
+        <v>18.0270620200158</v>
       </c>
       <c r="L12">
-        <v>10.32631755224988</v>
+        <v>8.168523409066923</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>23.6140112532013</v>
+        <v>16.45972322852505</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>20.02699664530562</v>
+        <v>22.93885425788117</v>
       </c>
       <c r="C13">
-        <v>5.950076223150838</v>
+        <v>8.417796200665924</v>
       </c>
       <c r="D13">
-        <v>8.422894621163737</v>
+        <v>5.455212612256587</v>
       </c>
       <c r="E13">
-        <v>10.66521068130585</v>
+        <v>7.546179099012831</v>
       </c>
       <c r="F13">
-        <v>43.03036199338282</v>
+        <v>41.48434542158454</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,16 +965,16 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>15.91543199915291</v>
+        <v>17.97402882872476</v>
       </c>
       <c r="L13">
-        <v>10.32499950427864</v>
+        <v>8.154320464253125</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>23.61515944164048</v>
+        <v>16.46228875350272</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>19.9808746904666</v>
+        <v>22.74169433818152</v>
       </c>
       <c r="C14">
-        <v>5.922310314703044</v>
+        <v>8.349917162925731</v>
       </c>
       <c r="D14">
-        <v>8.425107473381122</v>
+        <v>5.471112195928125</v>
       </c>
       <c r="E14">
-        <v>10.66446033242712</v>
+        <v>7.518053710613088</v>
       </c>
       <c r="F14">
-        <v>42.98383000154216</v>
+        <v>41.23161853580992</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,16 +1012,16 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>15.88330402254088</v>
+        <v>17.80040569298336</v>
       </c>
       <c r="L14">
-        <v>10.32074925730532</v>
+        <v>8.108028919678334</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>23.6189509944061</v>
+        <v>16.47086327740612</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>19.95267115444551</v>
+        <v>22.62053860651423</v>
       </c>
       <c r="C15">
-        <v>5.905219930628989</v>
+        <v>8.308179188572552</v>
       </c>
       <c r="D15">
-        <v>8.426466833153224</v>
+        <v>5.480834751331036</v>
       </c>
       <c r="E15">
-        <v>10.66403311375273</v>
+        <v>7.500892998340832</v>
       </c>
       <c r="F15">
-        <v>42.95547221205208</v>
+        <v>41.076963792367</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,16 +1059,16 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>15.86367111359954</v>
+        <v>17.69353851490829</v>
       </c>
       <c r="L15">
-        <v>10.318182942393</v>
+        <v>8.079695144252348</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>23.62130958573551</v>
+        <v>16.47627332703133</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>19.79182004576072</v>
+        <v>21.92024587705447</v>
       </c>
       <c r="C16">
-        <v>5.80602169174831</v>
+        <v>8.066503582880712</v>
       </c>
       <c r="D16">
-        <v>8.434317096071453</v>
+        <v>5.536324655354997</v>
       </c>
       <c r="E16">
-        <v>10.66208194603288</v>
+        <v>7.403571352553902</v>
       </c>
       <c r="F16">
-        <v>42.79520508890733</v>
+        <v>40.19295357546424</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,16 +1106,16 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>15.75190309001426</v>
+        <v>17.07307116325832</v>
       </c>
       <c r="L16">
-        <v>10.30404687682316</v>
+        <v>7.917656491924221</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>23.63537962091703</v>
+        <v>16.50962570747518</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>19.69387978337037</v>
+        <v>21.48526964641606</v>
       </c>
       <c r="C17">
-        <v>5.744055304188598</v>
+        <v>7.915981222665278</v>
       </c>
       <c r="D17">
-        <v>8.439186998829646</v>
+        <v>5.570190548903307</v>
       </c>
       <c r="E17">
-        <v>10.66132908270618</v>
+        <v>7.344771913529378</v>
       </c>
       <c r="F17">
-        <v>42.69891353088764</v>
+        <v>39.65265667834736</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,16 +1153,16 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>15.68402895337468</v>
+        <v>16.68512602612948</v>
       </c>
       <c r="L17">
-        <v>10.2958860261675</v>
+        <v>7.818556371743976</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>23.64450509514237</v>
+        <v>16.53210894845153</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>19.63783681698181</v>
+        <v>21.23310800646645</v>
       </c>
       <c r="C18">
-        <v>5.708010785781524</v>
+        <v>7.828559425719583</v>
       </c>
       <c r="D18">
-        <v>8.442007967760306</v>
+        <v>5.589614947269097</v>
       </c>
       <c r="E18">
-        <v>10.6610594849348</v>
+        <v>7.311282558142808</v>
       </c>
       <c r="F18">
-        <v>42.64428516450987</v>
+        <v>39.34264054146082</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,16 +1200,16 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>15.64525621060856</v>
+        <v>16.45925805628345</v>
       </c>
       <c r="L18">
-        <v>10.29138078995766</v>
+        <v>7.761673954585481</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>23.64993523949881</v>
+        <v>16.5457558728288</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>19.61891317897813</v>
+        <v>21.1473915642608</v>
       </c>
       <c r="C19">
-        <v>5.695738031514388</v>
+        <v>7.798813515191226</v>
       </c>
       <c r="D19">
-        <v>8.442966529627506</v>
+        <v>5.596183298036648</v>
       </c>
       <c r="E19">
-        <v>10.66099629224534</v>
+        <v>7.300000269386006</v>
       </c>
       <c r="F19">
-        <v>42.62591980289406</v>
+        <v>39.23780426210939</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,16 +1247,16 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>15.63217539394229</v>
+        <v>16.38230954153181</v>
       </c>
       <c r="L19">
-        <v>10.28988787272695</v>
+        <v>7.742435285873917</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>23.65180493971757</v>
+        <v>16.55049674879911</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>19.70427613742752</v>
+        <v>21.53177804296872</v>
       </c>
       <c r="C20">
-        <v>5.750693575230981</v>
+        <v>7.932091777409019</v>
       </c>
       <c r="D20">
-        <v>8.438666528497357</v>
+        <v>5.566591314652372</v>
       </c>
       <c r="E20">
-        <v>10.66139231668066</v>
+        <v>7.35099697157236</v>
       </c>
       <c r="F20">
-        <v>42.70908593429404</v>
+        <v>39.71009503478014</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,16 +1294,16 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>15.69122695040253</v>
+        <v>16.7267052009039</v>
       </c>
       <c r="L20">
-        <v>10.29673525397442</v>
+        <v>7.829093736479234</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>23.6435148947505</v>
+        <v>16.52964093624861</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>19.99441203442764</v>
+        <v>22.79968609515934</v>
       </c>
       <c r="C21">
-        <v>5.930483151286945</v>
+        <v>8.369888151575342</v>
       </c>
       <c r="D21">
-        <v>8.424456687734788</v>
+        <v>5.46644558201446</v>
       </c>
       <c r="E21">
-        <v>10.6646739791038</v>
+        <v>7.526300861341269</v>
       </c>
       <c r="F21">
-        <v>42.99746754738029</v>
+        <v>41.30581970370525</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,16 +1341,16 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>15.89273118694932</v>
+        <v>17.85151068418257</v>
       </c>
       <c r="L21">
-        <v>10.32198993459263</v>
+        <v>8.121621477175211</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>23.61782978797187</v>
+        <v>16.46831165109182</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>20.18620938580685</v>
+        <v>23.67273274308647</v>
       </c>
       <c r="C22">
-        <v>6.044286846275609</v>
+        <v>8.648808007343929</v>
       </c>
       <c r="D22">
-        <v>8.415345567364316</v>
+        <v>5.400288257888628</v>
       </c>
       <c r="E22">
-        <v>10.66826912210876</v>
+        <v>7.643861147486125</v>
       </c>
       <c r="F22">
-        <v>43.19243466392796</v>
+        <v>42.35534388301968</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,16 +1388,16 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>16.02653627494011</v>
+        <v>18.56332489614784</v>
       </c>
       <c r="L22">
-        <v>10.34015737936412</v>
+        <v>8.31376331402535</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>23.60266101968242</v>
+        <v>16.4352195414761</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>20.0836638472228</v>
+        <v>23.19865966696821</v>
       </c>
       <c r="C23">
-        <v>5.98389109788751</v>
+        <v>8.500584811332857</v>
       </c>
       <c r="D23">
-        <v>8.420192334434407</v>
+        <v>5.43567373490184</v>
       </c>
       <c r="E23">
-        <v>10.66621787855136</v>
+        <v>7.58084059193709</v>
       </c>
       <c r="F23">
-        <v>43.0877948714553</v>
+        <v>41.7945775980964</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,16 +1435,16 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>15.95494174347685</v>
+        <v>18.18549699271271</v>
       </c>
       <c r="L23">
-        <v>10.33030992193643</v>
+        <v>8.211128268887489</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>23.61060871718649</v>
+        <v>16.45220971684694</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>19.6995751183359</v>
+        <v>21.51075810096425</v>
       </c>
       <c r="C24">
-        <v>5.747693717433744</v>
+        <v>7.924810953875451</v>
       </c>
       <c r="D24">
-        <v>8.438901767075027</v>
+        <v>5.568218667979763</v>
       </c>
       <c r="E24">
-        <v>10.66136322010884</v>
+        <v>7.348181641387659</v>
       </c>
       <c r="F24">
-        <v>42.70448471127543</v>
+        <v>39.68412525894607</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,16 +1482,16 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>15.68797195740217</v>
+        <v>16.70791609150491</v>
       </c>
       <c r="L24">
-        <v>10.29635073683333</v>
+        <v>7.824329507470015</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>23.64396199185632</v>
+        <v>16.53075448541873</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.29658223897301</v>
+        <v>19.63556609498856</v>
       </c>
       <c r="C25">
-        <v>5.477589029895853</v>
+        <v>7.271333914877501</v>
       </c>
       <c r="D25">
-        <v>8.45984590930092</v>
+        <v>5.709214329749972</v>
       </c>
       <c r="E25">
-        <v>10.66237652940642</v>
+        <v>7.109855822505308</v>
       </c>
       <c r="F25">
-        <v>42.32004519311515</v>
+        <v>37.43676970973028</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,16 +1529,16 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>15.41034627501635</v>
+        <v>15.03165826150516</v>
       </c>
       <c r="L25">
-        <v>10.26694110400127</v>
+        <v>7.411723462730368</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>23.68687315864325</v>
+        <v>16.64253693937267</v>
       </c>
       <c r="O25">
         <v>0</v>
